--- a/tablas_insivumeh/LODECOY.xlsx
+++ b/tablas_insivumeh/LODECOY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/4/2020 8:31:00 PM</t>
-  </si>
-  <si>
     <t>11/5/2020 11:46:00 AM</t>
   </si>
   <si>
@@ -62,6 +59,12 @@
   </si>
   <si>
     <t>11/6/2020 7:16:00 AM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:01:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:31:00 AM</t>
   </si>
   <si>
     <t>LODECOY</t>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +471,7 @@
         <v>17.72</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F2">
         <v>60</v>
@@ -477,7 +480,7 @@
         <v>132.34</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,7 +494,7 @@
         <v>17.72</v>
       </c>
       <c r="E3">
-        <v>9.699999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
         <v>60</v>
@@ -500,7 +503,7 @@
         <v>132.34</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,7 +517,7 @@
         <v>17.72</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>5.9</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -523,7 +526,7 @@
         <v>132.34</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -537,7 +540,7 @@
         <v>17.72</v>
       </c>
       <c r="E5">
-        <v>5.9</v>
+        <v>17.5</v>
       </c>
       <c r="F5">
         <v>60</v>
@@ -546,7 +549,7 @@
         <v>132.34</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -560,7 +563,7 @@
         <v>17.72</v>
       </c>
       <c r="E6">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>60</v>
@@ -569,7 +572,7 @@
         <v>132.34</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -592,7 +595,7 @@
         <v>132.34</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -606,7 +609,7 @@
         <v>17.72</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8">
         <v>60</v>
@@ -615,7 +618,30 @@
         <v>132.34</v>
       </c>
       <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
+      </c>
+      <c r="C9">
+        <v>17.72</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>132.34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LODECOY.xlsx
+++ b/tablas_insivumeh/LODECOY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -41,15 +41,6 @@
   </si>
   <si>
     <t>Estación</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:46:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 12:46:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 9:01:00 PM</t>
   </si>
   <si>
     <t>11/6/2020 4:31:00 AM</t>
@@ -425,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +462,7 @@
         <v>17.72</v>
       </c>
       <c r="E2">
-        <v>9.699999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="F2">
         <v>60</v>
@@ -480,7 +471,7 @@
         <v>132.34</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,7 +485,7 @@
         <v>17.72</v>
       </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>60</v>
@@ -503,7 +494,7 @@
         <v>132.34</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -517,7 +508,7 @@
         <v>17.72</v>
       </c>
       <c r="E4">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -526,7 +517,7 @@
         <v>132.34</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,7 +531,7 @@
         <v>17.72</v>
       </c>
       <c r="E5">
-        <v>17.5</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
         <v>60</v>
@@ -549,7 +540,7 @@
         <v>132.34</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -563,7 +554,7 @@
         <v>17.72</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F6">
         <v>60</v>
@@ -572,76 +563,7 @@
         <v>132.34</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7">
-        <v>17.72</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-      <c r="H7">
-        <v>132.34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>17.72</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-      <c r="F8">
-        <v>60</v>
-      </c>
-      <c r="H8">
-        <v>132.34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>17.72</v>
-      </c>
-      <c r="E9">
-        <v>0.6</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="H9">
-        <v>132.34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LODECOY.xlsx
+++ b/tablas_insivumeh/LODECOY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,22 +43,10 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/6/2020 4:31:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:15:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:16:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:01:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:31:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:01:00 PM</t>
+    <t>11/12/2020 3:46:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:31:00 PM</t>
   </si>
   <si>
     <t>LODECOY</t>
@@ -419,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +453,7 @@
         <v>17.72</v>
       </c>
       <c r="E2">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>60</v>
@@ -474,7 +462,7 @@
         <v>132.34</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -497,99 +485,7 @@
         <v>132.34</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4">
-        <v>17.72</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>60</v>
-      </c>
-      <c r="H4">
-        <v>132.34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>17.72</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>132.34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>17.72</v>
-      </c>
-      <c r="E6">
-        <v>0.6</v>
-      </c>
-      <c r="F6">
-        <v>60</v>
-      </c>
-      <c r="H6">
-        <v>132.34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>17.72</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-      <c r="H7">
-        <v>132.34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/LODECOY.xlsx
+++ b/tablas_insivumeh/LODECOY.xlsx
@@ -43,10 +43,10 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/12/2020 3:46:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:31:00 PM</t>
+    <t>11/14/2020 12:46:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:16:00 AM</t>
   </si>
   <si>
     <t>LODECOY</t>

--- a/tablas_insivumeh/LODECOY.xlsx
+++ b/tablas_insivumeh/LODECOY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Fecha</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>11/16/2020 6:16:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:01:00 AM</t>
   </si>
   <si>
     <t>LODECOY</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +465,7 @@
         <v>132.34</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -485,7 +488,27 @@
         <v>132.34</v>
       </c>
       <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>132.34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
